--- a/Developing countries.xlsx
+++ b/Developing countries.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shraz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilagrawal/Documents/Academics/Using-UNDATA-To-Classify-Countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD5906-3AED-D34C-8346-EC67A7451CD3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8EB851-C33C-EE4E-86DE-EB681F602857}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5AFDD5DA-E576-0D41-968D-5CFEEF5A9001}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" activeTab="1" xr2:uid="{5AFDD5DA-E576-0D41-968D-5CFEEF5A9001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="162">
   <si>
     <t>Austria</t>
   </si>
@@ -463,6 +464,54 @@
   </si>
   <si>
     <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Burkina-Faso</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Guinea Bissau</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Lao People’s Democratic Republic</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Solomon-Islands</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan   </t>
+  </si>
+  <si>
+    <t>Bhutan</t>
   </si>
 </sst>
 </file>
@@ -825,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB5B31-C44B-2D40-BBE4-1354D1D9D961}">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2565,4 +2614,1551 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E50685-C6CE-5946-9F37-22C0AB4505EB}">
+  <dimension ref="A1:B191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B190" sqref="A1:B191"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>66</v>
+      </c>
+      <c r="B145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>52</v>
+      </c>
+      <c r="B154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>58</v>
+      </c>
+      <c r="B156">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>148</v>
+      </c>
+      <c r="B159">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>68</v>
+      </c>
+      <c r="B160">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>80</v>
+      </c>
+      <c r="B161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>69</v>
+      </c>
+      <c r="B163">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>42</v>
+      </c>
+      <c r="B165">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>82</v>
+      </c>
+      <c r="B167">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>61</v>
+      </c>
+      <c r="B168">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>149</v>
+      </c>
+      <c r="B169">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>84</v>
+      </c>
+      <c r="B170">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>62</v>
+      </c>
+      <c r="B172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>44</v>
+      </c>
+      <c r="B174">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>85</v>
+      </c>
+      <c r="B175">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>63</v>
+      </c>
+      <c r="B176">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>73</v>
+      </c>
+      <c r="B178">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>153</v>
+      </c>
+      <c r="B180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>93</v>
+      </c>
+      <c r="B182">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>155</v>
+      </c>
+      <c r="B183">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>156</v>
+      </c>
+      <c r="B184">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>157</v>
+      </c>
+      <c r="B185">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>158</v>
+      </c>
+      <c r="B186">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>159</v>
+      </c>
+      <c r="B187">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>160</v>
+      </c>
+      <c r="B188">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>103</v>
+      </c>
+      <c r="B189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>106</v>
+      </c>
+      <c r="B191">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Developing countries.xlsx
+++ b/Developing countries.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilagrawal/Documents/Academics/Using-UNDATA-To-Classify-Countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shraz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8EB851-C33C-EE4E-86DE-EB681F602857}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD5906-3AED-D34C-8346-EC67A7451CD3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" activeTab="1" xr2:uid="{5AFDD5DA-E576-0D41-968D-5CFEEF5A9001}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5AFDD5DA-E576-0D41-968D-5CFEEF5A9001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Austria</t>
   </si>
@@ -464,54 +463,6 @@
   </si>
   <si>
     <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Burkina-Faso</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Guinea Bissau</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Lao People’s Democratic Republic</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Solomon-Islands</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan   </t>
-  </si>
-  <si>
-    <t>Bhutan</t>
   </si>
 </sst>
 </file>
@@ -874,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB5B31-C44B-2D40-BBE4-1354D1D9D961}">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2614,1551 +2565,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E50685-C6CE-5946-9F37-22C0AB4505EB}">
-  <dimension ref="A1:B191"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B190" sqref="A1:B191"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>134</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>135</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>66</v>
-      </c>
-      <c r="B145">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>76</v>
-      </c>
-      <c r="B146">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>54</v>
-      </c>
-      <c r="B148">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>51</v>
-      </c>
-      <c r="B149">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>47</v>
-      </c>
-      <c r="B150">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>147</v>
-      </c>
-      <c r="B152">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>56</v>
-      </c>
-      <c r="B153">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>57</v>
-      </c>
-      <c r="B155">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>58</v>
-      </c>
-      <c r="B156">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>77</v>
-      </c>
-      <c r="B157">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>49</v>
-      </c>
-      <c r="B158">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>148</v>
-      </c>
-      <c r="B159">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>68</v>
-      </c>
-      <c r="B160">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>80</v>
-      </c>
-      <c r="B161">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>60</v>
-      </c>
-      <c r="B162">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>69</v>
-      </c>
-      <c r="B163">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>81</v>
-      </c>
-      <c r="B164">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>42</v>
-      </c>
-      <c r="B165">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>71</v>
-      </c>
-      <c r="B166">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>82</v>
-      </c>
-      <c r="B167">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>61</v>
-      </c>
-      <c r="B168">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>149</v>
-      </c>
-      <c r="B169">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>84</v>
-      </c>
-      <c r="B170">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>62</v>
-      </c>
-      <c r="B172">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>150</v>
-      </c>
-      <c r="B173">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>44</v>
-      </c>
-      <c r="B174">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>85</v>
-      </c>
-      <c r="B175">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>63</v>
-      </c>
-      <c r="B176">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>151</v>
-      </c>
-      <c r="B177">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>73</v>
-      </c>
-      <c r="B178">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>152</v>
-      </c>
-      <c r="B179">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>153</v>
-      </c>
-      <c r="B180">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>154</v>
-      </c>
-      <c r="B181">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>93</v>
-      </c>
-      <c r="B182">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>155</v>
-      </c>
-      <c r="B183">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>156</v>
-      </c>
-      <c r="B184">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>157</v>
-      </c>
-      <c r="B185">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>158</v>
-      </c>
-      <c r="B186">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>159</v>
-      </c>
-      <c r="B187">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>160</v>
-      </c>
-      <c r="B188">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>103</v>
-      </c>
-      <c r="B189">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>161</v>
-      </c>
-      <c r="B190">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>106</v>
-      </c>
-      <c r="B191">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>